--- a/test/IRMN_weight_measurement.xlsx
+++ b/test/IRMN_weight_measurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonju\Documents\WJ_Python\QM_Develop_Machinelearning\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8202AA-46C7-4774-B8CE-3DABE3D8DBCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB4FAD6-2373-452E-9EAE-11FB89489890}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF1FCB5A-B03D-4DAC-9D8D-7B755A6B181F}"/>
   </bookViews>
@@ -27,17 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="12">
   <si>
     <t>Measurement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Theoretical value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Experimental value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -60,11 +56,28 @@
   <si>
     <t>Experimental value</t>
   </si>
+  <si>
+    <t>Exp1</t>
+  </si>
+  <si>
+    <t>Exp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp2</t>
+  </si>
+  <si>
+    <t>Exp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,12 +117,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AD7069-72D1-4579-A091-0169B280B235}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -438,10 +454,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -462,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -480,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -498,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -516,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -534,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -552,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -570,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -606,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -624,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -642,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -660,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -678,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -696,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -714,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -732,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -750,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -768,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -786,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -804,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -822,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -856,6 +872,490 @@
       </c>
       <c r="F25" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="2">
+        <v>112.99999999999955</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="2">
+        <v>127.85294117650427</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="2">
+        <v>99.961538461538055</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="2">
+        <v>117.65384615382966</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="2">
+        <v>117.999999999995</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D31" s="2">
+        <v>127.00000000000954</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="2">
+        <v>111.46153846151755</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" s="2">
+        <v>108.99999999998045</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="2">
+        <v>112.90909090912065</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="2">
+        <v>101.25974025973986</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="2">
+        <v>115.59740259741972</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="2">
+        <v>109.69230769232861</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="2">
+        <v>105.10465116281368</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="2">
+        <v>108.77647058824711</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="2">
+        <v>108.80769230768387</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D41" s="2">
+        <v>111.11688311685337</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="2">
+        <v>112.01298701298701</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="2">
+        <v>106.15384615385017</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="2">
+        <v>113.23076923075675</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="2">
+        <v>112.57894736844251</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D46" s="2">
+        <v>108.42857142855431</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D47" s="2">
+        <v>220.44155844159226</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D48" s="2">
+        <v>242.51470588232849</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D49" s="2">
+        <v>206.99999999995623</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D50" s="2">
+        <v>212.61627906975647</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D51" s="2">
+        <v>248.60294117647518</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D52" s="2">
+        <v>206.11538461538822</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D53" s="2">
+        <v>204.59302325581029</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D54" s="2">
+        <v>235</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D55" s="2">
+        <v>208.79220779221146</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="2">
+        <v>210.58441558437687</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D57" s="2">
+        <v>213.19230769229483</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D58" s="2">
+        <v>244.00000000002819</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D59" s="2">
+        <v>244</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D60" s="2">
+        <v>217.61538461536773</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D61" s="2">
+        <v>199.77906976746084</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D62" s="2">
+        <v>199.77906976746084</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D63" s="2">
+        <v>216.32432432435019</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D64" s="2">
+        <v>211.53947368421424</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D65" s="2">
+        <v>213</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D66" s="2">
+        <v>207.82142857141699</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D67" s="2">
+        <v>209</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D68" s="2">
+        <v>206.15853658536969</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="2">
+        <v>205.16000000001213</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -877,10 +1377,10 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -937,13 +1437,13 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
@@ -954,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -965,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -976,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -987,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -998,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -1009,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -1020,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -1031,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -1042,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -1053,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -1064,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -1075,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -1086,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -1097,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -1108,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -1119,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -1130,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -1141,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -1152,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -1163,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -1174,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
